--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-961919.5061111969</v>
+        <v>-963807.0876275996</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14501910.35680567</v>
+        <v>14501910.35680568</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7018992682492</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>138.3413458039269</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>38.96794081168497</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>125.8721928563318</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>181.3865607705607</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>93.91328675259854</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>70.40870439282088</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>48.44043965597511</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>165.2346790503163</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>3.009426387533807</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.1979728757948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>59.74564759222667</v>
+        <v>122.2856036254969</v>
       </c>
     </row>
     <row r="17">
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4.366412931922879</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>88.86494278824894</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>258.1442591749529</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>86.54660525695243</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>89.99855356114567</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>67.84064279592573</v>
       </c>
     </row>
     <row r="26">
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>123.1663911814753</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>72.15043040726745</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2843,7 +2843,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>41.90734288193183</v>
+        <v>52.5295277254504</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357148</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523561</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>766.0404291903644</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C2" t="n">
         <v>586.5435612426379</v>
@@ -4325,7 +4325,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2085.013905493097</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="Y2" t="n">
-        <v>1152.640269254486</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>246.4894537511404</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>246.4894537511404</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>688.7674278309951</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>474.4790046491578</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>474.4790046491578</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="U4" t="n">
-        <v>474.4790046491578</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="V4" t="n">
-        <v>474.4790046491578</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="W4" t="n">
-        <v>474.4790046491578</v>
+        <v>600.9853550586245</v>
       </c>
       <c r="X4" t="n">
-        <v>246.4894537511404</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y4" t="n">
-        <v>246.4894537511404</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C5" t="n">
-        <v>609.3508327416157</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>251.0851341348652</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>251.0851341348652</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>2073.341042251573</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,43 +4650,43 @@
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>261.391796148808</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>261.391796148808</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>261.391796148808</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>261.391796148808</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.391796148808</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>261.391796148808</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1999.645413916309</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1999.645413916309</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4857,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D10" t="n">
-        <v>675.4941957298054</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="11">
@@ -5015,61 +5015,61 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
@@ -5106,16 +5106,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126481</v>
@@ -5124,7 +5124,7 @@
         <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M12" t="n">
         <v>1228.513823643586</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.3055067228584</v>
+        <v>545.1765965867976</v>
       </c>
       <c r="C13" t="n">
-        <v>413.3055067228584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241959</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>809.2953582963252</v>
+        <v>954.8146123150545</v>
       </c>
       <c r="X13" t="n">
-        <v>809.2953582963252</v>
+        <v>726.8250614170373</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.9539715530981</v>
+        <v>726.8250614170373</v>
       </c>
     </row>
     <row r="14">
@@ -5255,19 +5255,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,10 +5276,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5297,7 +5297,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,13 +5355,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712.817008502768</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>712.817008502768</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>562.7003690904322</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904322</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5473,13 +5473,13 @@
         <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150549</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150549</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.4654733330077</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5519,25 +5519,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>399.6573425680682</v>
+        <v>506.0324822735072</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>337.0962993456003</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>186.9796599332646</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>186.9796599332646</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963253</v>
+        <v>954.8146123150547</v>
       </c>
       <c r="X19" t="n">
-        <v>581.3058073983079</v>
+        <v>726.8250614170373</v>
       </c>
       <c r="Y19" t="n">
-        <v>581.3058073983079</v>
+        <v>506.0324822735072</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>953.6472828615139</v>
+        <v>709.4934589365137</v>
       </c>
       <c r="M21" t="n">
-        <v>1722.015429253975</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>990.782867939064</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>821.8466850111571</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988213</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,13 +5926,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
@@ -5941,19 +5941,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1038.244483529058</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V22" t="n">
-        <v>783.5599953231707</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W22" t="n">
-        <v>494.1428252862101</v>
+        <v>1211.575447082594</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>1211.575447082594</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>990.782867939064</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,19 +6002,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6023,7 +6023,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>377.6878657662455</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383386</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383386</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383386</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383386</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383386</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1408.00864069816</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1184.223225487665</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>895.0945867012235</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>895.0945867012235</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>605.6774166642629</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>377.6878657662455</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y25" t="n">
-        <v>377.6878657662455</v>
+        <v>912.983647808858</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>950.8003491200559</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>696.115860914169</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>696.115860914169</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X28" t="n">
-        <v>468.1263100161517</v>
+        <v>647.5712290164487</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542188</v>
+        <v>709.5791743061659</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076828</v>
+        <v>596.4038566596298</v>
       </c>
       <c r="D31" t="n">
-        <v>284.0264629319941</v>
+        <v>543.3437276440235</v>
       </c>
       <c r="E31" t="n">
-        <v>191.8742346309718</v>
+        <v>451.1914993430013</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309718</v>
+        <v>360.0624171264618</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>247.6479607276533</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569675</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962055</v>
@@ -6646,25 +6646,25 @@
         <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1712.787274970148</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1479.419501465077</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1280.495878540561</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818937</v>
+        <v>1046.839573784972</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365247</v>
+        <v>874.6108881683251</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030877</v>
+        <v>709.5791743061659</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6838,31 +6838,31 @@
         <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982965</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6962,10 +6962,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,13 +7160,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C40" t="n">
         <v>559.3441472229671</v>
@@ -7315,28 +7315,28 @@
         <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7804,28 +7804,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>32.78140656352423</v>
+        <v>176.7176547498446</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>164.237394711094</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037946</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890392</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.386680476300026</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.8390057598681</v>
+        <v>96.2990497265979</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>162.880408166705</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>56.55610523468231</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,10 +23944,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>28.09309322362446</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>199.9763930796386</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>107.9222564224576</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>150.7440105561691</v>
       </c>
     </row>
     <row r="26">
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>163.0709612171021</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>153.5592249817697</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>51.50487350772345</v>
+        <v>40.88268866420478</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1219319.02315233</v>
+        <v>1219319.023152329</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1219319.023152329</v>
+        <v>1219319.02315233</v>
       </c>
     </row>
     <row r="9">
@@ -26314,43 +26314,43 @@
         <v>164208.3539728567</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="D2" t="n">
-        <v>164208.3539728566</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
         <v>156411.6238950834</v>
       </c>
       <c r="F2" t="n">
+        <v>156411.6238950834</v>
+      </c>
+      <c r="G2" t="n">
         <v>156411.6238950835</v>
-      </c>
-      <c r="G2" t="n">
-        <v>156411.6238950834</v>
       </c>
       <c r="H2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="I2" t="n">
-        <v>156411.6238950835</v>
+        <v>156411.6238950834</v>
       </c>
       <c r="J2" t="n">
         <v>156411.6238950835</v>
       </c>
       <c r="K2" t="n">
-        <v>162728.8549381079</v>
+        <v>162728.8549381078</v>
       </c>
       <c r="L2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="O2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728568</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728568</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086675</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284573</v>
       </c>
     </row>
     <row r="4">
@@ -26421,37 +26421,37 @@
         <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007501</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007487</v>
-      </c>
       <c r="H4" t="n">
-        <v>7916.731656007459</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007451</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732794</v>
+      </c>
+      <c r="M4" t="n">
         <v>30335.51889732795</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732797</v>
-      </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732797</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,10 +26494,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-656535.6520210182</v>
       </c>
       <c r="C6" t="n">
+        <v>-66567.7728064736</v>
+      </c>
+      <c r="D6" t="n">
         <v>-66567.77280647369</v>
       </c>
-      <c r="D6" t="n">
-        <v>-66567.77280647366</v>
-      </c>
       <c r="E6" t="n">
-        <v>-468652.4701865365</v>
+        <v>-468749.9293125088</v>
       </c>
       <c r="F6" t="n">
-        <v>56507.56629035935</v>
+        <v>56410.1071643871</v>
       </c>
       <c r="G6" t="n">
-        <v>56507.56629035927</v>
+        <v>56410.10716438724</v>
       </c>
       <c r="H6" t="n">
-        <v>56507.56629035939</v>
+        <v>56410.10716438723</v>
       </c>
       <c r="I6" t="n">
-        <v>56507.56629035936</v>
+        <v>56410.1071643872</v>
       </c>
       <c r="J6" t="n">
-        <v>-119915.6529022335</v>
+        <v>-120013.1120282057</v>
       </c>
       <c r="K6" t="n">
-        <v>-4143.313065164562</v>
+        <v>-4161.806803099154</v>
       </c>
       <c r="L6" t="n">
-        <v>25814.82245463655</v>
+        <v>25814.82245463667</v>
       </c>
       <c r="M6" t="n">
-        <v>-98643.28597833365</v>
+        <v>-98643.28597833382</v>
       </c>
       <c r="N6" t="n">
+        <v>36157.72925550326</v>
+      </c>
+      <c r="O6" t="n">
         <v>36157.72925550338</v>
       </c>
-      <c r="O6" t="n">
-        <v>36157.72925550341</v>
-      </c>
       <c r="P6" t="n">
-        <v>-8004.876047342215</v>
+        <v>-8004.876047342317</v>
       </c>
     </row>
   </sheetData>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964068</v>
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108343</v>
       </c>
       <c r="M2" t="n">
         <v>2.842170943040401e-14</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5709925027583</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>189.410912666208</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>107.6972511684729</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>99.16291260175252</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>225.4894849711507</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>292.324651903455</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>85.76218444897427</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>279.3118188141598</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>204.4964216281527</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>38.2851774626476</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>-7.032208304403594e-13</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32081,7 +32081,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32090,10 +32090,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>282.0391115195485</v>
+        <v>425.975359705869</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412272</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043195</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>265.0957540022528</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
